--- a/INTLINE/data/142/STANOR/old/01222 Population and changes during the quarter.xlsx
+++ b/INTLINE/data/142/STANOR/old/01222 Population and changes during the quarter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>01222: Population and changes during the quarter, by quarter, contents and region</x:t>
   </x:si>
@@ -313,19 +313,22 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>For the 4th quarter the increase in population is calculated as the population at the end of the year less the population at the start of the quarter. For the first, second and third quarter the increase in population is the sum of the excess of births and the net migration.</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;a href='https://www.ssb.no/offentlig-sektor/kommunekatalog/endringer-i-de-regionale-inndelingene' target='footnote'&gt;&lt;b&gt;See list over changes in regional classifications (in Norwegian).&lt;/b&gt;&lt;/a&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Population at the beginning of the quarter:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211118 08:00</x:t>
+    <x:t>20220224 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -778,14 +781,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B146"/>
+  <x:dimension ref="A1:B147"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="38.700625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -1571,9 +1573,12 @@
         <x:v>5402171</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:2">
-      <x:c r="A102" s="4" t="s">
+    <x:row r="101" spans="1:2">
+      <x:c r="A101" s="2" t="s">
         <x:v>99</x:v>
+      </x:c>
+      <x:c r="B101" s="3" t="n">
+        <x:v>5415166</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:2">
@@ -1581,8 +1586,8 @@
         <x:v>100</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:2">
-      <x:c r="A105" s="0" t="s">
+    <x:row r="104" spans="1:2">
+      <x:c r="A104" s="4" t="s">
         <x:v>101</x:v>
       </x:c>
     </x:row>
@@ -1596,8 +1601,8 @@
         <x:v>103</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:2">
-      <x:c r="A109" s="0" t="s">
+    <x:row r="108" spans="1:2">
+      <x:c r="A108" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
     </x:row>
@@ -1606,19 +1611,19 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:2">
-      <x:c r="A112" s="0" t="s">
+    <x:row r="111" spans="1:2">
+      <x:c r="A111" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:2">
       <x:c r="A113" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2">
       <x:c r="A114" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:2">
@@ -1631,8 +1636,8 @@
         <x:v>109</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:2">
-      <x:c r="A118" s="0" t="s">
+    <x:row r="117" spans="1:2">
+      <x:c r="A117" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
     </x:row>
@@ -1646,24 +1651,24 @@
         <x:v>112</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:2">
-      <x:c r="A124" s="0" t="s">
+    <x:row r="121" spans="1:2">
+      <x:c r="A121" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:2">
-      <x:c r="A126" s="0" t="s">
+    <x:row r="125" spans="1:2">
+      <x:c r="A125" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:2">
       <x:c r="A127" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:2">
       <x:c r="A128" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:2">
@@ -1673,31 +1678,31 @@
     </x:row>
     <x:row r="130" spans="1:2">
       <x:c r="A130" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:2">
       <x:c r="A131" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:2">
-      <x:c r="A133" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:2">
+      <x:c r="A132" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:2">
       <x:c r="A134" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="142" spans="1:2">
-      <x:c r="A142" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:2">
+      <x:c r="A136" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
     </x:row>
@@ -1706,8 +1711,8 @@
         <x:v>121</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:2">
-      <x:c r="A145" s="0" t="s">
+    <x:row r="144" spans="1:2">
+      <x:c r="A144" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
     </x:row>
@@ -1716,7 +1721,16 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
+    <x:row r="147" spans="1:2">
+      <x:c r="A147" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A103:B103"/>
+    <x:mergeCell ref="A104:B104"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
